--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VP\Learning\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D7CC0-196F-4E3B-B37B-AED48777CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9151B1-7C10-474E-ACEB-01B67F9C0409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="174">
   <si>
     <t>Problem Title</t>
   </si>
@@ -413,13 +413,182 @@
   </si>
   <si>
     <t>LCP (Longest common prefix) Array</t>
+  </si>
+  <si>
+    <t>Frequncy of all possible sub-strings in a string</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>String Function Calculation</t>
+  </si>
+  <si>
+    <t>finding max calculation for longest substring with higest frequency.</t>
+  </si>
+  <si>
+    <t>Suffix Arrays</t>
+  </si>
+  <si>
+    <t>LCP Array
+Suffix Array
+Max rectangle in histogram
+Suffix Sort</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/string-function-calculation/problem</t>
+  </si>
+  <si>
+    <t>Build a Palindrome</t>
+  </si>
+  <si>
+    <t>build longest palindrome from the substrings of two strings</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/challenging-palindromes/problem</t>
+  </si>
+  <si>
+    <t>Suffix Array
+LCP Array
+Manacher's Algorithm
+Palindromic Tree
+String Hashing</t>
+  </si>
+  <si>
+    <t>Manacher's Algorithm</t>
+  </si>
+  <si>
+    <t>Palindromic Tree</t>
+  </si>
+  <si>
+    <t>String Hashing</t>
+  </si>
+  <si>
+    <t>To get the longest palindromic substring from string</t>
+  </si>
+  <si>
+    <t>Fenwick tree/BIT</t>
+  </si>
+  <si>
+    <t>Cards Permutation</t>
+  </si>
+  <si>
+    <t>numbers permutation &amp; rank</t>
+  </si>
+  <si>
+    <t>Permuation &amp; Combination</t>
+  </si>
+  <si>
+    <t>Permutation &amp; Combination
+Fenwick tree/BIT</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cards-permutation/problem</t>
+  </si>
+  <si>
+    <t>Build a String</t>
+  </si>
+  <si>
+    <t>substring search in string</t>
+  </si>
+  <si>
+    <t>Pattern Search</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/build-a-string/problem</t>
+  </si>
+  <si>
+    <t>Gridland Provinces</t>
+  </si>
+  <si>
+    <t>finding distinct string</t>
+  </si>
+  <si>
+    <t>Hard*</t>
+  </si>
+  <si>
+    <t>String Hashing
+Hash Set
+Hamiltonian Path</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/gridland-provinces/problem</t>
+  </si>
+  <si>
+    <t>Hash Set</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Pattern Searching</t>
+  </si>
+  <si>
+    <t>Ashton and String</t>
+  </si>
+  <si>
+    <t>generating distinct substrings</t>
+  </si>
+  <si>
+    <t>Suffix Array
+LCP Array</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/ashton-and-string/problem</t>
+  </si>
+  <si>
+    <t>String Similarity</t>
+  </si>
+  <si>
+    <t>matching suffixes of two strings</t>
+  </si>
+  <si>
+    <t>Z-algorithm</t>
+  </si>
+  <si>
+    <t>Z-algorithm
+Suffix Array</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/string-similarity/problem</t>
+  </si>
+  <si>
+    <t>Super Functional Strings</t>
+  </si>
+  <si>
+    <t>comparing distinct substrings</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/super-functional-strings/problem</t>
+  </si>
+  <si>
+    <t>Similar Strings</t>
+  </si>
+  <si>
+    <t>String Hashing
+Sorting</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/similar-strings/problem</t>
+  </si>
+  <si>
+    <t>Z-Algorithm</t>
+  </si>
+  <si>
+    <t>Pattern matching algorithm in O(n) time</t>
+  </si>
+  <si>
+    <t>Rabin Karp</t>
+  </si>
+  <si>
+    <t>Pattern matching with string hashing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,13 +611,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0E141E"/>
       <name val="Bahnschrift"/>
@@ -464,6 +626,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -489,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,29 +687,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,18 +725,31 @@
   <dxfs count="20">
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="9"/>
+        <color theme="10"/>
         <name val="Bahnschrift"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -587,19 +783,18 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Bahnschrift"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -652,22 +847,10 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="Bahnschrift"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -833,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}" name="Table3" displayName="Table3" ref="A1:K17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:K17" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}" name="Table3" displayName="Table3" ref="A1:K27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:K27" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{252DF6CF-B83D-48E1-B291-200054638A51}" name="Sr No." dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{FE4C0A02-CE36-4B65-A079-8C73B8BA8E4E}" name="Problem Title" dataDxfId="16"/>
@@ -845,22 +1028,22 @@
     <tableColumn id="6" xr3:uid="{3A2EE99B-2BBB-461A-B424-13B9D4F66E87}" name="Sub-Topic" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{ACEEDFCA-0B05-4A9E-9B37-9C3368C35AE1}" name="Data Structure" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{8923A6FB-244F-4A3A-8E35-203D312839B2}" name="Algorithm/Concept" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B99CD72B-93B3-4DB6-B679-3AFEEE6CAF39}" name="Platform" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{7EC9002D-B015-431A-A7C1-32401C3D2279}" name="Link" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B99CD72B-93B3-4DB6-B679-3AFEEE6CAF39}" name="Platform" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7EC9002D-B015-431A-A7C1-32401C3D2279}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0583BE41-AE9C-48E1-A332-524FA33C2CE8}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A1:E23" xr:uid="{0583BE41-AE9C-48E1-A332-524FA33C2CE8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0583BE41-AE9C-48E1-A332-524FA33C2CE8}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:E30" xr:uid="{0583BE41-AE9C-48E1-A332-524FA33C2CE8}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{8CE0A6A9-E64A-4756-8316-313F3C6E0B50}" name="Concepts" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AFD12E17-B918-4247-B5B0-D102E66FF010}" name="Topic" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9359C083-6931-4674-A585-DF0EE144E15A}" name="Description" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{7DA86E76-51D7-4F7F-8685-764E4B9D3B34}" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EB1C3BE9-4B5D-46C6-9C68-8C747601D2C5}" name="Reading Source" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AFD12E17-B918-4247-B5B0-D102E66FF010}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9359C083-6931-4674-A585-DF0EE144E15A}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7DA86E76-51D7-4F7F-8685-764E4B9D3B34}" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EB1C3BE9-4B5D-46C6-9C68-8C747601D2C5}" name="Reading Source" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1129,16 +1312,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I20:I21"/>
+    <sheetView topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
@@ -1147,42 +1330,42 @@
     <col min="8" max="8" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1217,7 +1400,7 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1252,7 +1435,7 @@
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1287,7 +1470,7 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1322,7 +1505,7 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1357,7 +1540,7 @@
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1392,7 +1575,7 @@
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1427,7 +1610,7 @@
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1462,7 +1645,7 @@
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1497,7 +1680,7 @@
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1532,7 +1715,7 @@
       <c r="J11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1540,7 +1723,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1567,7 +1750,7 @@
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1602,11 +1785,11 @@
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1637,11 +1820,11 @@
       <c r="J14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1672,7 +1855,7 @@
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1707,7 +1890,7 @@
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1742,8 +1925,343 @@
       <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="15" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1761,21 +2279,27 @@
     <hyperlink ref="K12" r:id="rId11" xr:uid="{568C3E8B-8431-4688-91D4-108DBD533B9D}"/>
     <hyperlink ref="K13" r:id="rId12" xr:uid="{E50D8733-609C-45BA-A98D-61A2D1D3A14F}"/>
     <hyperlink ref="K15" r:id="rId13" xr:uid="{AC58BF7F-BDEF-464B-B3FA-3527753F5864}"/>
+    <hyperlink ref="K19" r:id="rId14" xr:uid="{ECAE3D57-BAD2-4368-A80E-98A1DD6E6866}"/>
+    <hyperlink ref="K21" r:id="rId15" xr:uid="{6811134B-FDF2-47EC-81B1-577B61D97E54}"/>
+    <hyperlink ref="K22" r:id="rId16" xr:uid="{F90DA6A6-9D0C-4831-B6C5-E7D852BFA17D}"/>
+    <hyperlink ref="K23" r:id="rId17" xr:uid="{185297B8-9A37-40A4-8ADD-FD7D2377C48F}"/>
+    <hyperlink ref="K24" r:id="rId18" xr:uid="{8F54910A-E3D1-404B-B5F2-A2F7F7551764}"/>
+    <hyperlink ref="K25" r:id="rId19" xr:uid="{82287202-5A9B-49EB-9D93-037BCA587491}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B4A192-CBC4-4726-8487-6C0E1C62FE80}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1788,20 +2312,20 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1877,7 +2401,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>55</v>
@@ -1885,7 +2409,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -1893,7 +2417,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>55</v>
@@ -1901,7 +2425,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -1909,7 +2433,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -1917,42 +2441,56 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>55</v>
@@ -1960,43 +2498,111 @@
       <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>109</v>
       </c>
     </row>
